--- a/数据整理/stocks/A股/创业板/300007-汉威科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300007-汉威科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.93</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.53</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004211</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰周期优选灵活配置混合</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100.41</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -604,15 +644,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>79.31</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.93</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>004211</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>金鹰周期优选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>100.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300007-汉威科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300007-汉威科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300007-汉威科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300007-汉威科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7247</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300007-汉威科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300007-汉威科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300007-汉威科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300007-汉威科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.36</v>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8542</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.36</v>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7908</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1338,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.24</v>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7062</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1376,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005517</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002908</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国睿利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005518</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300007-汉威科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300007-汉威科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1799,7 +1800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,17 +1811,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1830,14 +1851,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.44</v>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9094</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1846,14 +1889,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.36</v>
       </c>
     </row>
     <row r="4">
@@ -1862,14 +1927,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.36</v>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1878,14 +1965,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.24</v>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1894,13 +2003,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300007-汉威科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300007-汉威科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2274,7 +2275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2285,17 +2286,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2305,14 +2326,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.05</v>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1007</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2321,14 +2364,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.44</v>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3990</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2337,14 +2402,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.36</v>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2353,14 +2440,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.36</v>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2369,14 +2478,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.24</v>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2385,13 +2516,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300007-汉威科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300007-汉威科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.83</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>3.05</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>5.44</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.36</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.36</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -600,6 +617,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2834</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -921,7 +1032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1395,7 +1506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1976,252 +2087,6 @@
       </c>
       <c r="H15" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>320003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安先锋混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>41.56</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7247</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162102</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金鹰中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>77.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1803</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>210009</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰核心资源混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1720</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001167</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>金鹰科技创新股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1542</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008185</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安研究优选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1282</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2286,36 +2151,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>320003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>诺安先锋混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>41.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1817</t>
+          <t>1.7247</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2334,26 +2199,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.34</t>
+          <t>77.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1228</t>
+          <t>0.1803</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2362,36 +2227,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>210002</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰红利价值混合</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.04</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0315</t>
+          <t>0.1720</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2400,36 +2265,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004211</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰周期优选灵活配置混合</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>97.99</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0183</t>
+          <t>0.1542</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2438,36 +2303,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001743</t>
+          <t>008185</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺安优选回报灵活配置混合</t>
+          <t>诺安研究优选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.51</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.1282</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2476,6 +2341,252 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2645,7 +2756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300007-汉威科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300007-汉威科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.28</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.83</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>3.05</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>5.44</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.36</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.36</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -616,7 +633,233 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5415</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2537</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -710,7 +953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1032,7 +1275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1506,7 +1749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2087,252 +2330,6 @@
       </c>
       <c r="H15" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>320003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安先锋混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>41.56</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7247</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162102</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金鹰中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>77.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1803</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>210009</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰核心资源混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1720</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001167</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>金鹰科技创新股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1542</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008185</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安研究优选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1282</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2397,36 +2394,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>210009</t>
+          <t>320003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰核心资源混合</t>
+          <t>诺安先锋混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>41.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1817</t>
+          <t>1.7247</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2445,26 +2442,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.34</t>
+          <t>77.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1228</t>
+          <t>0.1803</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2473,36 +2470,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>210002</t>
+          <t>210009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰红利价值混合</t>
+          <t>金鹰核心资源混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.04</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0315</t>
+          <t>0.1720</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2511,36 +2508,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004211</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰周期优选灵活配置混合</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>97.99</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.33</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0183</t>
+          <t>0.1542</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2549,36 +2546,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001743</t>
+          <t>008185</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺安优选回报灵活配置混合</t>
+          <t>诺安研究优选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.51</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.1282</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2587,6 +2584,252 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2754,98 +2997,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>210009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>金鹰核心资源混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1866</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>